--- a/solar-plant.xlsx
+++ b/solar-plant.xlsx
@@ -1,13 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4th_Dimension\Desktop\ArjunTask\WeatherMeterManagement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7BD454-6D13-4968-A807-08842B061176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="6450" yWindow="3825" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="GzDbIxQjs5TCjDKg3KpNuaLFQjchulJPC7kiQb2Y3SY="/>
     </ext>
@@ -16,26 +37,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Plant_Start </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF833C0B"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF833C0B"/>
-        <sz val="8.0"/>
       </rPr>
       <t>(HH:MM) [Irradiance &gt; 10 W/m2]</t>
     </r>
@@ -43,19 +64,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Plant_Stop </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF833C0B"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF833C0B"/>
-        <sz val="8.0"/>
       </rPr>
       <t>(HH:MM)
 [Irradiance &lt; 10 W/m2]</t>
@@ -64,20 +85,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Total
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF833C0B"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF833C0B"/>
-        <sz val="8.0"/>
       </rPr>
       <t>(HH:MM)</t>
     </r>
@@ -118,49 +139,62 @@
   <si>
     <t>Total Imp</t>
   </si>
+  <si>
+    <t>dgdggg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yy"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF833C0B"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -168,7 +202,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -202,7 +236,13 @@
     </fill>
   </fills>
   <borders count="10">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FFBFBFBF"/>
@@ -213,27 +253,35 @@
       <top style="medium">
         <color rgb="FFBFBFBF"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FFBFBFBF"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FFBFBFBF"/>
       </top>
       <bottom style="medium">
         <color rgb="FFBFBFBF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FFBFBFBF"/>
       </top>
       <bottom style="medium">
         <color rgb="FFBFBFBF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FFBFBFBF"/>
       </right>
@@ -243,6 +291,7 @@
       <bottom style="medium">
         <color rgb="FFBFBFBF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -253,6 +302,7 @@
       <bottom style="medium">
         <color rgb="FFBFBFBF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -261,9 +311,11 @@
       <right style="medium">
         <color rgb="FFBFBFBF"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FFBFBFBF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -278,6 +330,7 @@
       <bottom style="thin">
         <color rgb="FFBFBFBF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -292,83 +345,88 @@
       <bottom style="thin">
         <color rgb="FFB4C6E7"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FFBFBFBF"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FFBFBFBF"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="5" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="20" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="6" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="5" fontId="4" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -558,961 +616,967 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.0"/>
-    <col customWidth="1" min="2" max="22" width="8.71"/>
-    <col customWidth="1" min="23" max="23" width="14.71"/>
-    <col customWidth="1" min="24" max="24" width="9.71"/>
-    <col customWidth="1" min="25" max="26" width="8.71"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="22" width="8.7109375" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" customWidth="1"/>
+    <col min="25" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.0" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" ht="27" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="6" t="s">
+      <c r="O1" s="15"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="6" t="s">
+      <c r="R1" s="15"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="7" t="s">
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+    <row r="2" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="11">
-        <v>45809.0</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15">
-        <v>939.106</v>
-      </c>
-      <c r="F3" s="15">
-        <v>940.385</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="15">
-        <v>1.783</v>
-      </c>
-      <c r="O3" s="15">
-        <v>1.785</v>
-      </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X3" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="11">
-        <v>45810.0</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="E4" s="15">
-        <f t="shared" ref="E4:E32" si="1">F3</f>
-        <v>940.385</v>
-      </c>
-      <c r="F4" s="15">
-        <v>941.456</v>
-      </c>
-      <c r="N4" s="15">
-        <f t="shared" ref="N4:N32" si="2">O3</f>
-        <v>1.785</v>
-      </c>
-      <c r="O4" s="15">
+    <row r="3" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A3" s="4">
+        <v>45809</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8">
+        <v>939.10599999999999</v>
+      </c>
+      <c r="F3" s="8">
+        <v>940.38499999999999</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="8">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="O3" s="8">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="12">
+        <v>500</v>
+      </c>
+      <c r="X3" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>45810</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E32" si="0">F3</f>
+        <v>940.38499999999999</v>
+      </c>
+      <c r="F4" s="8">
+        <v>941.45600000000002</v>
+      </c>
+      <c r="N4" s="8">
+        <f t="shared" ref="N4:N32" si="1">O3</f>
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="O4" s="8">
         <v>1.786</v>
       </c>
-      <c r="W4" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X4" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="11">
-        <v>45811.0</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="E5" s="15">
-        <f t="shared" si="1"/>
-        <v>941.456</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="W4" s="12">
+        <v>500</v>
+      </c>
+      <c r="X4" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A5" s="4">
+        <v>45811</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>941.45600000000002</v>
+      </c>
+      <c r="F5" s="8">
         <v>942.529</v>
       </c>
-      <c r="N5" s="15">
-        <f t="shared" si="2"/>
+      <c r="N5" s="8">
+        <f t="shared" si="1"/>
         <v>1.786</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="8">
         <v>1.788</v>
       </c>
-      <c r="W5" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X5" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="11">
-        <v>45812.0</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="E6" s="15">
-        <f t="shared" si="1"/>
+      <c r="W5" s="12">
+        <v>500</v>
+      </c>
+      <c r="X5" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A6" s="4">
+        <v>45812</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
         <v>942.529</v>
       </c>
-      <c r="F6" s="15">
-        <v>943.801</v>
-      </c>
-      <c r="N6" s="15">
-        <f t="shared" si="2"/>
+      <c r="F6" s="8">
+        <v>943.80100000000004</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="1"/>
         <v>1.788</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="8">
         <v>1.79</v>
       </c>
-      <c r="W6" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X6" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="11">
-        <v>45813.0</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="E7" s="15">
-        <f t="shared" si="1"/>
-        <v>943.801</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="W6" s="12">
+        <v>500</v>
+      </c>
+      <c r="X6" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A7" s="4">
+        <v>45813</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>943.80100000000004</v>
+      </c>
+      <c r="F7" s="8">
         <v>944.03</v>
       </c>
-      <c r="N7" s="15">
-        <f t="shared" si="2"/>
+      <c r="N7" s="8">
+        <f t="shared" si="1"/>
         <v>1.79</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="8">
         <v>1.792</v>
       </c>
-      <c r="W7" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X7" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="11">
-        <v>45814.0</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="E8" s="15">
-        <f t="shared" si="1"/>
+      <c r="W7" s="12">
+        <v>500</v>
+      </c>
+      <c r="X7" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A8" s="4">
+        <v>45814</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
         <v>944.03</v>
       </c>
-      <c r="F8" s="15">
-        <v>945.271</v>
-      </c>
-      <c r="N8" s="15">
-        <f t="shared" si="2"/>
+      <c r="F8" s="8">
+        <v>945.27099999999996</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="1"/>
         <v>1.792</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="8">
         <v>1.794</v>
       </c>
-      <c r="W8" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X8" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="11">
-        <v>45815.0</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="E9" s="15">
-        <f t="shared" si="1"/>
-        <v>945.271</v>
-      </c>
-      <c r="F9" s="15">
-        <v>946.215</v>
-      </c>
-      <c r="N9" s="15">
-        <f t="shared" si="2"/>
+      <c r="W8" s="12">
+        <v>500</v>
+      </c>
+      <c r="X8" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A9" s="4">
+        <v>45815</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>945.27099999999996</v>
+      </c>
+      <c r="F9" s="8">
+        <v>946.21500000000003</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="1"/>
         <v>1.794</v>
       </c>
-      <c r="O9" s="15">
-        <v>1.795</v>
-      </c>
-      <c r="W9" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X9" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="11">
-        <v>45816.0</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="E10" s="15">
-        <f t="shared" si="1"/>
-        <v>946.215</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="O9" s="8">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="W9" s="12">
+        <v>500</v>
+      </c>
+      <c r="X9" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A10" s="4">
+        <v>45816</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>946.21500000000003</v>
+      </c>
+      <c r="F10" s="8">
         <v>947.44</v>
       </c>
-      <c r="N10" s="15">
-        <f t="shared" si="2"/>
-        <v>1.795</v>
-      </c>
-      <c r="O10" s="15">
-        <v>1.797</v>
-      </c>
-      <c r="W10" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X10" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="11">
-        <v>45817.0</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="E11" s="15">
-        <f t="shared" si="1"/>
+      <c r="N10" s="8">
+        <f t="shared" si="1"/>
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="W10" s="12">
+        <v>500</v>
+      </c>
+      <c r="X10" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A11" s="4">
+        <v>45817</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
         <v>947.44</v>
       </c>
-      <c r="F11" s="15">
-        <v>948.493</v>
-      </c>
-      <c r="N11" s="15">
-        <f t="shared" si="2"/>
-        <v>1.797</v>
-      </c>
-      <c r="O11" s="15">
-        <v>1.799</v>
-      </c>
-      <c r="W11" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X11" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="11">
-        <v>45818.0</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="E12" s="15">
-        <f t="shared" si="1"/>
-        <v>948.493</v>
-      </c>
-      <c r="F12" s="15">
-        <v>949.158</v>
-      </c>
-      <c r="N12" s="15">
-        <f t="shared" si="2"/>
-        <v>1.799</v>
-      </c>
-      <c r="O12" s="15">
-        <v>1.801</v>
-      </c>
-      <c r="W12" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X12" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="11">
-        <v>45819.0</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="E13" s="15">
-        <f t="shared" si="1"/>
-        <v>949.158</v>
-      </c>
-      <c r="F13" s="15">
-        <v>949.633</v>
-      </c>
-      <c r="N13" s="15">
-        <f t="shared" si="2"/>
-        <v>1.801</v>
-      </c>
-      <c r="O13" s="15">
-        <v>1.803</v>
-      </c>
-      <c r="W13" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X13" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="11">
-        <v>45820.0</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="E14" s="15">
-        <f t="shared" si="1"/>
-        <v>949.633</v>
-      </c>
-      <c r="F14" s="15">
-        <v>950.248</v>
-      </c>
-      <c r="N14" s="15">
-        <f t="shared" si="2"/>
-        <v>1.803</v>
-      </c>
-      <c r="O14" s="15">
-        <v>1.805</v>
-      </c>
-      <c r="W14" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X14" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="11">
-        <v>45821.0</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="E15" s="15">
-        <f t="shared" si="1"/>
-        <v>950.248</v>
-      </c>
-      <c r="F15" s="15">
-        <v>951.145</v>
-      </c>
-      <c r="N15" s="15">
-        <f t="shared" si="2"/>
-        <v>1.805</v>
-      </c>
-      <c r="O15" s="15">
-        <v>1.807</v>
-      </c>
-      <c r="W15" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X15" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="11">
-        <v>45822.0</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="E16" s="15">
-        <f t="shared" si="1"/>
-        <v>951.145</v>
-      </c>
-      <c r="F16" s="15">
-        <v>951.688</v>
-      </c>
-      <c r="N16" s="15">
-        <f t="shared" si="2"/>
-        <v>1.807</v>
-      </c>
-      <c r="O16" s="15">
-        <v>1.808</v>
-      </c>
-      <c r="W16" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X16" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="11">
-        <v>45823.0</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="E17" s="15">
-        <f t="shared" si="1"/>
-        <v>951.688</v>
-      </c>
-      <c r="F17" s="15">
-        <v>952.333</v>
-      </c>
-      <c r="N17" s="15">
-        <f t="shared" si="2"/>
-        <v>1.808</v>
-      </c>
-      <c r="O17" s="15">
+      <c r="F11" s="8">
+        <v>948.49300000000005</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="1"/>
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="W11" s="12">
+        <v>500</v>
+      </c>
+      <c r="X11" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A12" s="4">
+        <v>45818</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>948.49300000000005</v>
+      </c>
+      <c r="F12" s="8">
+        <v>949.15800000000002</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="1"/>
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="W12" s="12">
+        <v>500</v>
+      </c>
+      <c r="X12" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A13" s="4">
+        <v>45819</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>949.15800000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <v>949.63300000000004</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="W13" s="12">
+        <v>500</v>
+      </c>
+      <c r="X13" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A14" s="4">
+        <v>45820</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>949.63300000000004</v>
+      </c>
+      <c r="F14" s="8">
+        <v>950.24800000000005</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="O14" s="8">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="W14" s="12">
+        <v>500</v>
+      </c>
+      <c r="X14" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A15" s="4">
+        <v>45821</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>950.24800000000005</v>
+      </c>
+      <c r="F15" s="8">
+        <v>951.14499999999998</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="O15" s="8">
+        <v>1.8069999999999999</v>
+      </c>
+      <c r="W15" s="12">
+        <v>500</v>
+      </c>
+      <c r="X15" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A16" s="4">
+        <v>45822</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>951.14499999999998</v>
+      </c>
+      <c r="F16" s="8">
+        <v>951.68799999999999</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8069999999999999</v>
+      </c>
+      <c r="O16" s="8">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="W16" s="12">
+        <v>500</v>
+      </c>
+      <c r="X16" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A17" s="4">
+        <v>45823</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>951.68799999999999</v>
+      </c>
+      <c r="F17" s="8">
+        <v>952.33299999999997</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="O17" s="8">
         <v>1.81</v>
       </c>
-      <c r="W17" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X17" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="11">
-        <v>45824.0</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="E18" s="15">
-        <f t="shared" si="1"/>
-        <v>952.333</v>
-      </c>
-      <c r="F18" s="15">
-        <v>953.231</v>
-      </c>
-      <c r="N18" s="15">
-        <f t="shared" si="2"/>
+      <c r="W17" s="12">
+        <v>500</v>
+      </c>
+      <c r="X17" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A18" s="4">
+        <v>45824</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>952.33299999999997</v>
+      </c>
+      <c r="F18" s="8">
+        <v>953.23099999999999</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="1"/>
         <v>1.81</v>
       </c>
-      <c r="O18" s="15">
-        <v>1.811</v>
-      </c>
-      <c r="W18" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X18" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="11">
-        <v>45825.0</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="E19" s="15">
-        <f t="shared" si="1"/>
-        <v>953.231</v>
-      </c>
-      <c r="F19" s="15">
-        <v>954.345</v>
-      </c>
-      <c r="N19" s="15">
-        <f t="shared" si="2"/>
-        <v>1.811</v>
-      </c>
-      <c r="O19" s="15">
-        <v>1.813</v>
-      </c>
-      <c r="W19" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X19" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="11">
-        <v>45826.0</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="E20" s="15">
-        <f t="shared" si="1"/>
-        <v>954.345</v>
-      </c>
-      <c r="F20" s="15">
-        <v>955.451</v>
-      </c>
-      <c r="N20" s="15">
-        <f t="shared" si="2"/>
-        <v>1.813</v>
-      </c>
-      <c r="O20" s="15">
-        <v>1.815</v>
-      </c>
-      <c r="W20" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X20" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="11">
-        <v>45827.0</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="E21" s="15">
-        <f t="shared" si="1"/>
-        <v>955.451</v>
-      </c>
-      <c r="F21" s="15">
-        <v>956.485</v>
-      </c>
-      <c r="N21" s="15">
-        <f t="shared" si="2"/>
-        <v>1.815</v>
-      </c>
-      <c r="O21" s="15">
-        <v>1.816</v>
-      </c>
-      <c r="W21" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X21" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="11">
-        <v>45828.0</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="E22" s="15">
-        <f t="shared" si="1"/>
-        <v>956.485</v>
-      </c>
-      <c r="F22" s="15">
-        <v>957.498</v>
-      </c>
-      <c r="N22" s="15">
-        <f t="shared" si="2"/>
-        <v>1.816</v>
-      </c>
-      <c r="O22" s="15">
-        <v>1.818</v>
-      </c>
-      <c r="W22" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X22" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="11">
-        <v>45829.0</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="E23" s="15">
-        <f t="shared" si="1"/>
-        <v>957.498</v>
-      </c>
-      <c r="F23" s="15">
-        <v>958.614</v>
-      </c>
-      <c r="N23" s="15">
-        <f t="shared" si="2"/>
-        <v>1.818</v>
-      </c>
-      <c r="O23" s="15">
+      <c r="O18" s="8">
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="W18" s="12">
+        <v>500</v>
+      </c>
+      <c r="X18" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A19" s="4">
+        <v>45825</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>953.23099999999999</v>
+      </c>
+      <c r="F19" s="8">
+        <v>954.34500000000003</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="O19" s="8">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="W19" s="12">
+        <v>500</v>
+      </c>
+      <c r="X19" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A20" s="4">
+        <v>45826</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>954.34500000000003</v>
+      </c>
+      <c r="F20" s="8">
+        <v>955.45100000000002</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="O20" s="8">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="W20" s="12">
+        <v>500</v>
+      </c>
+      <c r="X20" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A21" s="4">
+        <v>45827</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>955.45100000000002</v>
+      </c>
+      <c r="F21" s="8">
+        <v>956.48500000000001</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="O21" s="8">
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="W21" s="12">
+        <v>500</v>
+      </c>
+      <c r="X21" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A22" s="4">
+        <v>45828</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>956.48500000000001</v>
+      </c>
+      <c r="F22" s="8">
+        <v>957.49800000000005</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="O22" s="8">
+        <v>1.8180000000000001</v>
+      </c>
+      <c r="W22" s="12">
+        <v>500</v>
+      </c>
+      <c r="X22" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A23" s="4">
+        <v>45829</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>957.49800000000005</v>
+      </c>
+      <c r="F23" s="8">
+        <v>958.61400000000003</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8180000000000001</v>
+      </c>
+      <c r="O23" s="8">
         <v>1.82</v>
       </c>
-      <c r="W23" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X23" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="11">
-        <v>45830.0</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="E24" s="15">
-        <f t="shared" si="1"/>
-        <v>958.614</v>
-      </c>
-      <c r="F24" s="15">
+      <c r="W23" s="12">
+        <v>500</v>
+      </c>
+      <c r="X23" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A24" s="4">
+        <v>45830</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>958.61400000000003</v>
+      </c>
+      <c r="F24" s="8">
         <v>959.63</v>
       </c>
-      <c r="N24" s="15">
-        <f t="shared" si="2"/>
+      <c r="N24" s="8">
+        <f t="shared" si="1"/>
         <v>1.82</v>
       </c>
-      <c r="O24" s="15">
-        <v>1.822</v>
-      </c>
-      <c r="W24" s="19">
-        <v>500.0</v>
-      </c>
-      <c r="X24" s="19">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="11">
-        <v>45831.0</v>
-      </c>
-      <c r="E25" s="15">
-        <f t="shared" si="1"/>
+      <c r="O24" s="8">
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="W24" s="12">
+        <v>500</v>
+      </c>
+      <c r="X24" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A25" s="4">
+        <v>45831</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
         <v>959.63</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="8">
         <v>960.53</v>
       </c>
-      <c r="N25" s="15">
-        <f t="shared" si="2"/>
-        <v>1.822</v>
-      </c>
-      <c r="O25" s="15">
+      <c r="N25" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="O25" s="8">
         <v>1.823</v>
       </c>
-      <c r="W25" s="19">
-        <v>234.0</v>
-      </c>
-      <c r="X25" s="19">
-        <v>234.0</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="11">
-        <v>45832.0</v>
-      </c>
-      <c r="E26" s="15">
-        <f t="shared" si="1"/>
+      <c r="W25" s="12">
+        <v>234</v>
+      </c>
+      <c r="X25" s="12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A26" s="4">
+        <v>45832</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
         <v>960.53</v>
       </c>
-      <c r="F26" s="15">
-        <v>960.973</v>
-      </c>
-      <c r="N26" s="15">
-        <f t="shared" si="2"/>
+      <c r="F26" s="8">
+        <v>960.97299999999996</v>
+      </c>
+      <c r="N26" s="8">
+        <f t="shared" si="1"/>
         <v>1.823</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="8">
         <v>1.825</v>
       </c>
-      <c r="W26" s="19">
-        <v>234.0</v>
-      </c>
-      <c r="X26" s="19">
-        <v>234.0</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="11">
-        <v>45833.0</v>
-      </c>
-      <c r="E27" s="15">
-        <f t="shared" si="1"/>
-        <v>960.973</v>
-      </c>
-      <c r="F27" s="15">
-        <v>961.917</v>
-      </c>
-      <c r="N27" s="15">
-        <f t="shared" si="2"/>
+      <c r="W26" s="12">
+        <v>234</v>
+      </c>
+      <c r="X26" s="12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A27" s="4">
+        <v>45833</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>960.97299999999996</v>
+      </c>
+      <c r="F27" s="8">
+        <v>961.91700000000003</v>
+      </c>
+      <c r="N27" s="8">
+        <f t="shared" si="1"/>
         <v>1.825</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="8">
         <v>1.827</v>
       </c>
-      <c r="W27" s="19">
-        <v>234.0</v>
-      </c>
-      <c r="X27" s="19">
-        <v>234.0</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="11">
-        <v>45834.0</v>
-      </c>
-      <c r="E28" s="15">
-        <f t="shared" si="1"/>
-        <v>961.917</v>
-      </c>
-      <c r="F28" s="15">
-        <v>962.936</v>
-      </c>
-      <c r="N28" s="15">
-        <f t="shared" si="2"/>
+      <c r="W27" s="12">
+        <v>234</v>
+      </c>
+      <c r="X27" s="12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A28" s="4">
+        <v>45834</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>961.91700000000003</v>
+      </c>
+      <c r="F28" s="8">
+        <v>962.93600000000004</v>
+      </c>
+      <c r="N28" s="8">
+        <f t="shared" si="1"/>
         <v>1.827</v>
       </c>
-      <c r="O28" s="15">
-        <v>1.828</v>
-      </c>
-      <c r="W28" s="19">
-        <v>234.0</v>
-      </c>
-      <c r="X28" s="19">
-        <v>234.0</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="11">
-        <v>45835.0</v>
-      </c>
-      <c r="E29" s="15">
-        <f t="shared" si="1"/>
-        <v>962.936</v>
-      </c>
-      <c r="F29" s="15">
-        <v>964.093</v>
-      </c>
-      <c r="N29" s="15">
-        <f t="shared" si="2"/>
-        <v>1.828</v>
-      </c>
-      <c r="O29" s="15">
+      <c r="O28" s="8">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="W28" s="12">
+        <v>234</v>
+      </c>
+      <c r="X28" s="12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A29" s="4">
+        <v>45835</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="0"/>
+        <v>962.93600000000004</v>
+      </c>
+      <c r="F29" s="8">
+        <v>964.09299999999996</v>
+      </c>
+      <c r="N29" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="O29" s="8">
         <v>1.83</v>
       </c>
-      <c r="W29" s="19">
-        <v>234.0</v>
-      </c>
-      <c r="X29" s="19">
-        <v>234.0</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="11">
-        <v>45836.0</v>
-      </c>
-      <c r="E30" s="15">
-        <f t="shared" si="1"/>
-        <v>964.093</v>
-      </c>
-      <c r="F30" s="15">
-        <v>965.262</v>
-      </c>
-      <c r="N30" s="15">
-        <f t="shared" si="2"/>
+      <c r="W29" s="12">
+        <v>234</v>
+      </c>
+      <c r="X29" s="12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A30" s="4">
+        <v>45836</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>964.09299999999996</v>
+      </c>
+      <c r="F30" s="8">
+        <v>965.26199999999994</v>
+      </c>
+      <c r="N30" s="8">
+        <f t="shared" si="1"/>
         <v>1.83</v>
       </c>
-      <c r="O30" s="15">
-        <v>1.832</v>
-      </c>
-      <c r="W30" s="19">
-        <v>234.0</v>
-      </c>
-      <c r="X30" s="19">
-        <v>234.0</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="11">
-        <v>45837.0</v>
-      </c>
-      <c r="E31" s="15">
-        <f t="shared" si="1"/>
-        <v>965.262</v>
-      </c>
-      <c r="F31" s="15">
-        <v>966.061</v>
-      </c>
-      <c r="N31" s="15">
-        <f t="shared" si="2"/>
-        <v>1.832</v>
-      </c>
-      <c r="O31" s="15">
+      <c r="O30" s="8">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="W30" s="12">
+        <v>234</v>
+      </c>
+      <c r="X30" s="12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A31" s="4">
+        <v>45837</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>965.26199999999994</v>
+      </c>
+      <c r="F31" s="8">
+        <v>966.06100000000004</v>
+      </c>
+      <c r="N31" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="O31" s="8">
         <v>1.833</v>
       </c>
-      <c r="W31" s="19">
-        <v>234.0</v>
-      </c>
-      <c r="X31" s="19">
-        <v>234.0</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="11">
-        <v>45838.0</v>
-      </c>
-      <c r="E32" s="15">
-        <f t="shared" si="1"/>
-        <v>966.061</v>
-      </c>
-      <c r="F32" s="15">
-        <v>966.812</v>
-      </c>
-      <c r="N32" s="15">
-        <f t="shared" si="2"/>
+      <c r="W31" s="12">
+        <v>234</v>
+      </c>
+      <c r="X31" s="12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A32" s="4">
+        <v>45838</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="0"/>
+        <v>966.06100000000004</v>
+      </c>
+      <c r="F32" s="8">
+        <v>966.81200000000001</v>
+      </c>
+      <c r="N32" s="8">
+        <f t="shared" si="1"/>
         <v>1.833</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32" s="8">
         <v>1.835</v>
       </c>
-      <c r="W32" s="19">
-        <v>234.0</v>
-      </c>
-      <c r="X32" s="19">
-        <v>234.0</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="20"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="W32" s="12">
+        <v>234</v>
+      </c>
+      <c r="X32" s="12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="34" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:1" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2478,15 +2542,13 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="E4:E32 N4:N32">
-      <formula1>0.0</formula1>
-      <formula2>1.0E34</formula2>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="E4:E32 N4:N32" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>0</formula1>
+      <formula2>1E+34</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/solar-plant.xlsx
+++ b/solar-plant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4th_Dimension\Desktop\ArjunTask\WeatherMeterManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4478865-FFB9-474E-87F7-3C6B21B65A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195160EF-4316-4846-B884-2E98000F6BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6450" yWindow="3825" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -138,15 +138,6 @@
   </si>
   <si>
     <t>Total Imp</t>
-  </si>
-  <si>
-    <t>dgdggg</t>
-  </si>
-  <si>
-    <t>hgujfghuyfv</t>
-  </si>
-  <si>
-    <t>hghghg</t>
   </si>
 </sst>
 </file>
@@ -631,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1564,21 +1555,9 @@
     <row r="33" spans="1:1" ht="14.25" customHeight="1">
       <c r="A33" s="13"/>
     </row>
-    <row r="34" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    <row r="34" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:1" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:1" ht="14.25" customHeight="1"/>
     <row r="38" spans="1:1" ht="14.25" customHeight="1"/>
     <row r="39" spans="1:1" ht="14.25" customHeight="1"/>
